--- a/tfe.xlsx
+++ b/tfe.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,12 @@
   <si>
     <t>etudiants</t>
   </si>
+  <si>
+    <t>Patate</t>
+  </si>
+  <si>
+    <t>Chaude</t>
+  </si>
 </sst>
 </file>
 
@@ -53,12 +59,12 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,10 +85,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -141,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C3" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C4" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="3">
     <tableColumn name="Name" id="1"/>
     <tableColumn name="Surname" id="2"/>
@@ -365,21 +371,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -390,11 +396,21 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>
